--- a/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtByPartnerLHForGradationOne.xlsx
+++ b/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtByPartnerLHForGradationOne.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DongAERP\DongAERP\Content\Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DongAERP\DongAERP\Content\Report\ReportHSDetailt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8075CBF8-4936-40EA-A4C1-F6A5B68F4262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9F22C0-8FA4-445E-9340-1EA41994E7FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDADBC8A-6B6C-45FD-98E5-87326587A42E}"/>
   </bookViews>
@@ -38,28 +38,28 @@
     <t>Đơn vị:</t>
   </si>
   <si>
-    <t>BÁO CÁO TỔNG HỢP - THEO TỪNG THỊ TRƯỜNG</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
-    <t>Doanh số chi quầy</t>
-  </si>
-  <si>
-    <t>Doanh số chi nhà</t>
-  </si>
-  <si>
-    <t>Tổng doanh số</t>
-  </si>
-  <si>
-    <t>Doanh số CK</t>
-  </si>
-  <si>
     <t>Quy USD</t>
   </si>
   <si>
-    <t>1. Theo doanh số đối tác - loại hình dịch vụ</t>
+    <t>BÁO CÁO CHI TIẾT - THEO ĐỐI TÁC - SO SÁNH</t>
+  </si>
+  <si>
+    <t>1. Theo Hồ sơ đối tác - loại hình dịch vụ</t>
+  </si>
+  <si>
+    <t>Hồ sơ chi quầy</t>
+  </si>
+  <si>
+    <t>Hồ sơ chi nhà</t>
+  </si>
+  <si>
+    <t>Hồ sơ CK</t>
+  </si>
+  <si>
+    <t>Tổng</t>
   </si>
 </sst>
 </file>
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3B6D35-F82E-4989-A479-5B01F28891A5}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,7 +502,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -559,7 +559,7 @@
     </row>
     <row r="7" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" s="14"/>
       <c r="M7" s="7"/>
@@ -630,24 +630,24 @@
         <v>0</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
